--- a/MER/ModeloFisico.xlsx
+++ b/MER/ModeloFisico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INSTITUTO\Documents\Curso_BD_Turma2\MER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso_BD_Turma2\MER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>Pessoa</t>
   </si>
@@ -194,49 +194,196 @@
     <t>VEICULO</t>
   </si>
   <si>
-    <t>cod_veiculo</t>
-  </si>
-  <si>
-    <t>placa</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>efr</t>
-  </si>
-  <si>
-    <t>ford</t>
-  </si>
-  <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>erf</t>
-  </si>
-  <si>
-    <t>cod</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>cod_marca</t>
-  </si>
-  <si>
-    <t>cod_mod</t>
-  </si>
-  <si>
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>ALUGUEL</t>
-  </si>
-  <si>
     <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>COD_MARCA</t>
+  </si>
+  <si>
+    <t>NOME_MARCA</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>COD_MODELO</t>
+  </si>
+  <si>
+    <t>NOME_MODELO</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>COD_VEICULO</t>
+  </si>
+  <si>
+    <t>PLACA</t>
+  </si>
+  <si>
+    <t>AAA0000</t>
+  </si>
+  <si>
+    <t>COD_EMPRESA</t>
+  </si>
+  <si>
+    <t>NOME_EMPRESA</t>
+  </si>
+  <si>
+    <t>PORTO</t>
+  </si>
+  <si>
+    <t>COD_CLIENTE</t>
+  </si>
+  <si>
+    <t>NOME_CLIENTE</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>CPF_CLIENTE</t>
+  </si>
+  <si>
+    <t>ALUGEL</t>
+  </si>
+  <si>
+    <t>COD_ALUGUEL</t>
+  </si>
+  <si>
+    <t>DATA_RETIRADA</t>
+  </si>
+  <si>
+    <t>DATA_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>CIVIC</t>
+  </si>
+  <si>
+    <t>BBB0000</t>
+  </si>
+  <si>
+    <t>CLINICA</t>
+  </si>
+  <si>
+    <t>idClinica</t>
+  </si>
+  <si>
+    <t>RazaoSocial</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>PortoPet</t>
+  </si>
+  <si>
+    <t>Rua 1</t>
+  </si>
+  <si>
+    <t>TipoPets</t>
+  </si>
+  <si>
+    <t>idTipoPet</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>idRaca</t>
+  </si>
+  <si>
+    <t>Raça</t>
+  </si>
+  <si>
+    <t>idRaça</t>
+  </si>
+  <si>
+    <t>Poodle</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Siamês</t>
+  </si>
+  <si>
+    <t>Dono</t>
+  </si>
+  <si>
+    <t>IdDono</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Veterinario</t>
+  </si>
+  <si>
+    <t>idVeterinario</t>
+  </si>
+  <si>
+    <t>CRMV</t>
+  </si>
+  <si>
+    <t>JOSÉ</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>PETS</t>
+  </si>
+  <si>
+    <t>idPet</t>
+  </si>
+  <si>
+    <t>DataNacimento</t>
+  </si>
+  <si>
+    <t>idDono</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Snoopy</t>
+  </si>
+  <si>
+    <t>Atendimentos</t>
+  </si>
+  <si>
+    <t>idAtendimento</t>
+  </si>
+  <si>
+    <t>DataAtendimento</t>
+  </si>
+  <si>
+    <t>Restam 10 dias de vida</t>
+  </si>
+  <si>
+    <t>Paciente está ok</t>
   </si>
 </sst>
 </file>
@@ -435,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -465,6 +612,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -746,21 +895,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I74"/>
+  <dimension ref="B2:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="H87" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1185,107 +1340,538 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="E62" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="E63" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="15">
+        <v>1</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="15">
+        <v>2</v>
+      </c>
+      <c r="F65" s="16">
+        <v>2</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="C68" s="12"/>
+      <c r="E68" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="13">
+        <v>1</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="13">
+        <v>2</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="13">
+        <v>2</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="15"/>
+      <c r="C72" s="20"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C64" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="F74" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>62</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" t="s">
-        <v>62</v>
-      </c>
+      <c r="I75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="15">
+        <v>1</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="20">
+        <v>1232313</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1</v>
+      </c>
+      <c r="I76" s="9">
+        <v>45026</v>
+      </c>
+      <c r="J76" s="27">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F77" s="13"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H81" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="12"/>
+      <c r="N81" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="12"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H82" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L82" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R82" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="H83" s="13">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J83" s="9">
+        <v>42049</v>
+      </c>
+      <c r="K83" s="7">
+        <v>1</v>
+      </c>
+      <c r="L83" s="19">
+        <v>1</v>
+      </c>
+      <c r="N83" s="13">
+        <v>1</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P83" s="9">
+        <v>45033</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>1</v>
+      </c>
+      <c r="R83" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H84" s="13">
+        <v>2</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J84" s="9">
+        <v>43018</v>
+      </c>
+      <c r="K84" s="7">
+        <v>2</v>
+      </c>
+      <c r="L84" s="19">
+        <v>1</v>
+      </c>
+      <c r="N84" s="13">
+        <v>2</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P84" s="9">
+        <v>44885</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>2</v>
+      </c>
+      <c r="R84" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="13">
+        <v>1</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="7">
+        <v>123143435</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="20"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="20"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="15"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="E88" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="I88" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="13">
+        <v>1</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="13">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1</v>
+      </c>
+      <c r="I90" s="13">
+        <v>1</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B91" s="15">
+        <v>2</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" s="13">
+        <v>2</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1</v>
+      </c>
+      <c r="I91" s="13">
+        <v>2</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E92" s="13">
+        <v>3</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" s="19">
+        <v>2</v>
+      </c>
+      <c r="I92" s="15"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E93" s="15"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I94" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="12"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I95" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L95" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I96" s="13">
+        <v>1</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K96" s="7">
+        <v>78452</v>
+      </c>
+      <c r="L96" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I97" s="13">
+        <v>2</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K97" s="7">
+        <v>24234</v>
+      </c>
+      <c r="L97" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/MER/ModeloFisico.xlsx
+++ b/MER/ModeloFisico.xlsx
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H87" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1664,7 @@
         <v>43018</v>
       </c>
       <c r="K84" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84" s="19">
         <v>1</v>
